--- a/Documentation/Event table.xlsx
+++ b/Documentation/Event table.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Grey-Cube-Development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="formated one" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="269">
   <si>
     <t>Use Case#</t>
   </si>
@@ -602,13 +603,235 @@
     <t>Add game in cart table of DB</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate total cost of game and display bill page </t>
-  </si>
-  <si>
-    <t>Ship bill</t>
-  </si>
-  <si>
-    <t>The purchased game bill ship to member if shiping address available</t>
+    <t>Pay games request</t>
+  </si>
+  <si>
+    <t>Calculate total cost of items in cart, then display the bill page within registered credit card inforamtion</t>
+  </si>
+  <si>
+    <t>payment succeed</t>
+  </si>
+  <si>
+    <t>Member pay by validate card</t>
+  </si>
+  <si>
+    <t>shipped games</t>
+  </si>
+  <si>
+    <t>Employee shipped physical copies of games to members</t>
+  </si>
+  <si>
+    <t>Updated the ship status to the shipped date if the games have shipped</t>
+  </si>
+  <si>
+    <t>Update order status request</t>
+  </si>
+  <si>
+    <t>Update status of order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update the order of status to "precessed" </t>
+  </si>
+  <si>
+    <t>Add order</t>
+  </si>
+  <si>
+    <t>Add new order  then return member payment successful page</t>
+  </si>
+  <si>
+    <t>Employee wants to update the status of order</t>
+  </si>
+  <si>
+    <t>Update status of ship</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Download free game</t>
+  </si>
+  <si>
+    <t>Member wants to download a free game</t>
+  </si>
+  <si>
+    <t>Get the specific game download address in DB, return specific game page</t>
+  </si>
+  <si>
+    <t>Member wants to download a purchased game</t>
+  </si>
+  <si>
+    <t>Download purchased game</t>
+  </si>
+  <si>
+    <t>Get the specific game download address in DB if accessible, return specific game page</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>UC27</t>
+  </si>
+  <si>
+    <t>UC28</t>
+  </si>
+  <si>
+    <t>UC29</t>
+  </si>
+  <si>
+    <t>UC35</t>
+  </si>
+  <si>
+    <t>UC36</t>
+  </si>
+  <si>
+    <t>UC37</t>
+  </si>
+  <si>
+    <t>UC38</t>
+  </si>
+  <si>
+    <t>UC39</t>
+  </si>
+  <si>
+    <t>UC40</t>
+  </si>
+  <si>
+    <t>UC41</t>
+  </si>
+  <si>
+    <t>UC42</t>
+  </si>
+  <si>
+    <t>UC43</t>
+  </si>
+  <si>
+    <t>UC44</t>
+  </si>
+  <si>
+    <t>UC45</t>
+  </si>
+  <si>
+    <t>UC46</t>
+  </si>
+  <si>
+    <t>UC47</t>
+  </si>
+  <si>
+    <t>UC48</t>
+  </si>
+  <si>
+    <t>UC49</t>
+  </si>
+  <si>
+    <t>UC51</t>
+  </si>
+  <si>
+    <t>UC52</t>
+  </si>
+  <si>
+    <t>UC53</t>
+  </si>
+  <si>
+    <t>UC54</t>
+  </si>
+  <si>
+    <t>UC55</t>
+  </si>
+  <si>
+    <t>UC57</t>
+  </si>
+  <si>
+    <t>UC58</t>
+  </si>
+  <si>
+    <t>Add game request</t>
+  </si>
+  <si>
+    <t>Edit game request</t>
+  </si>
+  <si>
+    <t>Delete game request</t>
+  </si>
+  <si>
+    <t>View events</t>
+  </si>
+  <si>
+    <t>Events inquiry</t>
+  </si>
+  <si>
+    <t>Add event request</t>
+  </si>
+  <si>
+    <t>Edit event request</t>
+  </si>
+  <si>
+    <t>Delete event request</t>
+  </si>
+  <si>
+    <t>Reports inquiry</t>
+  </si>
+  <si>
+    <t>Print a  report</t>
+  </si>
+  <si>
+    <t>View a report</t>
+  </si>
+  <si>
+    <t>Employee wants to view one specific report</t>
+  </si>
+  <si>
+    <t>The detailed report is displayed</t>
+  </si>
+  <si>
+    <t>Member wants to register an upcoming event</t>
+  </si>
+  <si>
+    <t>Register an event</t>
+  </si>
+  <si>
+    <t>Register reqeust</t>
+  </si>
+  <si>
+    <t>Add member id in Registration events table on DB, return to events page</t>
+  </si>
+  <si>
+    <t>Add a new member in DB, redirect to member profile page if join succeed</t>
+  </si>
+  <si>
+    <t>Check username and password in DB. If the provided inforamtion is correct,  th index page is displayed</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>Over login attempts limit</t>
+  </si>
+  <si>
+    <t>Visitor tries to login account, but over the attempt limit</t>
+  </si>
+  <si>
+    <t>Check username and password in DB. Lock the member until member reset the password</t>
+  </si>
+  <si>
+    <t>Send reset password page to member through registered email address</t>
+  </si>
+  <si>
+    <t>Add profile request</t>
+  </si>
+  <si>
+    <t>Edit profile request</t>
+  </si>
+  <si>
+    <t>Member wants to add profile ( display name, actual name, email,  gender, birth date, promotional email, favorite platform, game category)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member wants to delete a game in wish list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a game in wish list on DC, return wish list page </t>
   </si>
 </sst>
 </file>
@@ -694,10 +917,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1213,7 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1063,17 +1286,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1316,6 +1536,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -1331,137 +1554,1392 @@
       <c r="F17" t="s">
         <v>176</v>
       </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B39:G39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>90</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="G24" t="s">
         <v>90</v>
@@ -1469,22 +2947,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>90</v>
@@ -1492,55 +2970,68 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
         <v>90</v>
@@ -1548,22 +3039,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
         <v>90</v>
@@ -1571,22 +3062,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
         <v>90</v>
@@ -1594,22 +3085,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
         <v>90</v>
@@ -1617,22 +3108,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" t="s">
         <v>90</v>
@@ -1640,22 +3131,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
         <v>90</v>
@@ -1663,20 +3154,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>131</v>
@@ -1699,7 +3200,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>134</v>
@@ -1720,34 +3221,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>147</v>
+      <c r="F38" t="s">
+        <v>146</v>
       </c>
       <c r="G38" t="s">
         <v>90</v>
@@ -1755,288 +3269,368 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" t="s">
         <v>40</v>
       </c>
-      <c r="E39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" t="s">
-        <v>166</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" t="s">
-        <v>186</v>
-      </c>
-      <c r="E51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" t="s">
-        <v>191</v>
-      </c>
-      <c r="G51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" t="s">
-        <v>187</v>
-      </c>
       <c r="E52" t="s">
         <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>253</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
       </c>
+      <c r="F54" t="s">
+        <v>256</v>
+      </c>
       <c r="G54" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B37:G37"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Event table.xlsx
+++ b/Documentation/Event table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Grey-Cube-Development\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Level5\MSEnterprise\Grey-Cube-Development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="304">
   <si>
     <t>Use Case#</t>
   </si>
@@ -690,9 +690,6 @@
     <t>UC37</t>
   </si>
   <si>
-    <t>UC38</t>
-  </si>
-  <si>
     <t>UC39</t>
   </si>
   <si>
@@ -714,9 +711,6 @@
     <t>UC45</t>
   </si>
   <si>
-    <t>UC46</t>
-  </si>
-  <si>
     <t>UC47</t>
   </si>
   <si>
@@ -825,13 +819,124 @@
     <t>Edit profile request</t>
   </si>
   <si>
-    <t>Member wants to add profile ( display name, actual name, email,  gender, birth date, promotional email, favorite platform, game category)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Member wants to delete a game in wish list </t>
   </si>
   <si>
     <t xml:space="preserve">Delete a game in wish list on DC, return wish list page </t>
+  </si>
+  <si>
+    <t>Visitor registers as member</t>
+  </si>
+  <si>
+    <t>Visitor wants to be a register</t>
+  </si>
+  <si>
+    <t>Member wants to reset the password</t>
+  </si>
+  <si>
+    <t>Member wants to update password</t>
+  </si>
+  <si>
+    <t>Member wants to add shipping address</t>
+  </si>
+  <si>
+    <t>Member wants to delete shipping address</t>
+  </si>
+  <si>
+    <t>Member wants to edit shipping address</t>
+  </si>
+  <si>
+    <t>Add shipping address</t>
+  </si>
+  <si>
+    <t>The new shipping address is added on DB, updated shipping address is displayed</t>
+  </si>
+  <si>
+    <t>Edit shipping address</t>
+  </si>
+  <si>
+    <t>Update the DB with the edited shipping address, updated shipping address is displayed</t>
+  </si>
+  <si>
+    <t>Delete shipping address</t>
+  </si>
+  <si>
+    <t>Delete the shipping address from DB, updated shipping addresss is displayed</t>
+  </si>
+  <si>
+    <t>Member wants to add a new credit card</t>
+  </si>
+  <si>
+    <t>View profile</t>
+  </si>
+  <si>
+    <t>Member wants to view profile</t>
+  </si>
+  <si>
+    <t>profile inquiry</t>
+  </si>
+  <si>
+    <t>Display stored profile information in view for member</t>
+  </si>
+  <si>
+    <t>Remove game from wish list</t>
+  </si>
+  <si>
+    <t>Member wants to view their friends list</t>
+  </si>
+  <si>
+    <t>Friend inquiry</t>
+  </si>
+  <si>
+    <t>Display list of users on the member's friend list</t>
+  </si>
+  <si>
+    <t>View own friends list</t>
+  </si>
+  <si>
+    <t>Select game from DB, the game detail is displayed, overall rating is calculated</t>
+  </si>
+  <si>
+    <t>Add game review to DB as a pending review</t>
+  </si>
+  <si>
+    <t>Employee wants to approve game review</t>
+  </si>
+  <si>
+    <t>System creates a cart</t>
+  </si>
+  <si>
+    <t>Successful log in</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>A cart is created as part of the member's session</t>
+  </si>
+  <si>
+    <t>Add game in cart list in session</t>
+  </si>
+  <si>
+    <t>Delete a game from cart in session</t>
+  </si>
+  <si>
+    <t>Calculate total cost of items in cart, then display the bill page with registered credit card information</t>
+  </si>
+  <si>
+    <t>Member pays with validated card</t>
+  </si>
+  <si>
+    <t>Member wants to download a game</t>
+  </si>
+  <si>
+    <t>Download request</t>
+  </si>
+  <si>
+    <t>Get the specific game download address in DB, authenticate user, initiate game download</t>
+  </si>
+  <si>
+    <t>Download game</t>
   </si>
 </sst>
 </file>
@@ -908,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,6 +1026,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,14 +1397,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1602,14 +1713,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1658,14 +1769,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1783,14 +1894,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1931,14 +2042,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1987,18 +2098,18 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
         <v>137</v>
@@ -2021,7 +2132,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
         <v>145</v>
@@ -2044,7 +2155,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
         <v>155</v>
@@ -2066,18 +2177,18 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
         <v>149</v>
@@ -2100,7 +2211,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
         <v>150</v>
@@ -2123,7 +2234,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
         <v>158</v>
@@ -2145,17 +2256,17 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
         <v>163</v>
@@ -2178,7 +2289,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s">
         <v>165</v>
@@ -2201,7 +2312,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
         <v>171</v>
@@ -2223,18 +2334,18 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>180</v>
@@ -2257,7 +2368,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
         <v>183</v>
@@ -2280,7 +2391,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
         <v>184</v>
@@ -2303,7 +2414,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s">
         <v>189</v>
@@ -2326,7 +2437,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
         <v>202</v>
@@ -2348,17 +2459,17 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s">
         <v>207</v>
@@ -2381,7 +2492,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
         <v>211</v>
@@ -2421,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2549,7 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2463,76 +2574,91 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -2540,22 +2666,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -2563,22 +2689,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -2586,22 +2712,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -2609,22 +2735,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -2632,45 +2758,42 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -2678,22 +2801,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -2701,42 +2824,45 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -2744,202 +2870,200 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
+      <c r="A20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>90</v>
@@ -2947,22 +3071,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
         <v>90</v>
@@ -2970,45 +3094,45 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>266</v>
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
         <v>90</v>
@@ -3016,22 +3140,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
         <v>90</v>
@@ -3039,22 +3163,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
         <v>90</v>
@@ -3062,22 +3186,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
         <v>90</v>
@@ -3085,22 +3209,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
         <v>90</v>
@@ -3108,45 +3232,45 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
-        <v>129</v>
+      <c r="F33" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G33" t="s">
         <v>90</v>
@@ -3154,22 +3278,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
         <v>90</v>
@@ -3177,13 +3301,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
         <v>57</v>
@@ -3192,21 +3316,18 @@
         <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -3215,30 +3336,27 @@
         <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>147</v>
+      <c r="F37" t="s">
+        <v>287</v>
       </c>
       <c r="G37" t="s">
         <v>90</v>
@@ -3246,22 +3364,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
         <v>90</v>
@@ -3269,39 +3387,45 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
         <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
         <v>90</v>
@@ -3309,13 +3433,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -3324,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
         <v>90</v>
@@ -3332,68 +3456,45 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
         <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
         <v>90</v>
@@ -3401,22 +3502,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="G45" t="s">
         <v>90</v>
@@ -3424,22 +3525,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
         <v>90</v>
@@ -3447,22 +3548,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
         <v>90</v>
@@ -3470,22 +3571,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
         <v>90</v>
       </c>
-      <c r="F48" t="s">
-        <v>191</v>
+      <c r="F48" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="G48" t="s">
         <v>90</v>
@@ -3493,144 +3594,51 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="E49" t="s">
         <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="G49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>226</v>
-      </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
         <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="G50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" t="s">
-        <v>256</v>
-      </c>
-      <c r="G54" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
+  <mergeCells count="2">
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Event table.xlsx
+++ b/Documentation/Event table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Level5\MSEnterprise\Grey-Cube-Development\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROG3050\Project\Git\Grey-Cube-Development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="307">
   <si>
     <t>Use Case#</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>UC03</t>
-  </si>
-  <si>
     <t>UC04</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>UC18</t>
   </si>
   <si>
-    <t>UC19</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>UC21</t>
   </si>
   <si>
-    <t>UC22</t>
-  </si>
-  <si>
     <t>UC23</t>
   </si>
   <si>
@@ -675,15 +666,9 @@
     <t>UC27</t>
   </si>
   <si>
-    <t>UC28</t>
-  </si>
-  <si>
     <t>UC29</t>
   </si>
   <si>
-    <t>UC35</t>
-  </si>
-  <si>
     <t>UC36</t>
   </si>
   <si>
@@ -699,9 +684,6 @@
     <t>UC41</t>
   </si>
   <si>
-    <t>UC42</t>
-  </si>
-  <si>
     <t>UC43</t>
   </si>
   <si>
@@ -780,24 +762,15 @@
     <t>The detailed report is displayed</t>
   </si>
   <si>
-    <t>Member wants to register an upcoming event</t>
-  </si>
-  <si>
     <t>Register an event</t>
   </si>
   <si>
-    <t>Register reqeust</t>
-  </si>
-  <si>
     <t>Add member id in Registration events table on DB, return to events page</t>
   </si>
   <si>
     <t>Add a new member in DB, redirect to member profile page if join succeed</t>
   </si>
   <si>
-    <t>Check username and password in DB. If the provided inforamtion is correct,  th index page is displayed</t>
-  </si>
-  <si>
     <t>Reset password</t>
   </si>
   <si>
@@ -873,9 +846,6 @@
     <t>Member wants to view profile</t>
   </si>
   <si>
-    <t>profile inquiry</t>
-  </si>
-  <si>
     <t>Display stored profile information in view for member</t>
   </si>
   <si>
@@ -915,9 +885,6 @@
     <t>A cart is created as part of the member's session</t>
   </si>
   <si>
-    <t>Add game in cart list in session</t>
-  </si>
-  <si>
     <t>Delete a game from cart in session</t>
   </si>
   <si>
@@ -937,6 +904,48 @@
   </si>
   <si>
     <t>Download game</t>
+  </si>
+  <si>
+    <t>Register request</t>
+  </si>
+  <si>
+    <t>Profile inquiry</t>
+  </si>
+  <si>
+    <t>Wish list inquiry</t>
+  </si>
+  <si>
+    <t>Payment succeeds</t>
+  </si>
+  <si>
+    <t>another Member</t>
+  </si>
+  <si>
+    <t>Edit the value of isPublished field to "true" if employee wants to publish, updated the view is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update the order of status to "processed" </t>
+  </si>
+  <si>
+    <t>Check username and password in DB. If the provided information is correct,  the index page is displayed</t>
+  </si>
+  <si>
+    <t>Add a rating number on DB</t>
+  </si>
+  <si>
+    <t>Add game to cart list in session</t>
+  </si>
+  <si>
+    <t>Add new order then return member payment successful page</t>
+  </si>
+  <si>
+    <t>Member wants to register for an upcoming event</t>
+  </si>
+  <si>
+    <t>Member wants to add a game review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select games from DB where game name or category are the filtering content, returned games are displayed in list </t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1028,10 +1037,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,1120 +1412,1120 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
         <v>91</v>
       </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
         <v>103</v>
       </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" t="s">
-        <v>120</v>
-      </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
         <v>118</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" t="s">
-        <v>121</v>
-      </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
         <v>122</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
-      </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>124</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
         <v>127</v>
       </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>130</v>
-      </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>159</v>
       </c>
-      <c r="D46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" t="s">
-        <v>162</v>
-      </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
         <v>163</v>
       </c>
-      <c r="C48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" t="s">
-        <v>166</v>
-      </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
         <v>165</v>
       </c>
-      <c r="C49" t="s">
-        <v>168</v>
-      </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
         <v>170</v>
       </c>
-      <c r="D50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" t="s">
-        <v>173</v>
-      </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="s">
         <v>183</v>
       </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" t="s">
-        <v>186</v>
-      </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
         <v>184</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" t="s">
         <v>185</v>
       </c>
-      <c r="D54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" t="s">
-        <v>188</v>
-      </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" t="s">
         <v>189</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
         <v>190</v>
       </c>
-      <c r="D55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" t="s">
-        <v>193</v>
-      </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2532,1114 +2547,1106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B42" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B46" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C47" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" t="s">
-        <v>276</v>
-      </c>
-      <c r="G29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>278</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>289</v>
-      </c>
-      <c r="G34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D37" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" t="s">
-        <v>287</v>
-      </c>
-      <c r="G37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" t="s">
-        <v>293</v>
-      </c>
-      <c r="E44" t="s">
-        <v>294</v>
-      </c>
-      <c r="F44" t="s">
-        <v>295</v>
-      </c>
-      <c r="G44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" t="s">
-        <v>296</v>
-      </c>
-      <c r="G45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" t="s">
-        <v>298</v>
-      </c>
-      <c r="G47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>227</v>
-      </c>
-      <c r="B49" t="s">
-        <v>303</v>
-      </c>
-      <c r="C49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D49" t="s">
-        <v>301</v>
-      </c>
-      <c r="E49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" t="s">
-        <v>302</v>
-      </c>
-      <c r="G49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>252</v>
-      </c>
-      <c r="C50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" t="s">
-        <v>90</v>
+      <c r="G47" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A20:G20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Event table.xlsx
+++ b/Documentation/Event table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROG3050\Project\Git\Grey-Cube-Development\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Level5\MSEnterprise\Grey-Cube-Development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="299">
   <si>
     <t>Use Case#</t>
   </si>
@@ -750,9 +750,6 @@
     <t>Reports inquiry</t>
   </si>
   <si>
-    <t>Print a  report</t>
-  </si>
-  <si>
     <t>View a report</t>
   </si>
   <si>
@@ -774,21 +771,9 @@
     <t>Reset password</t>
   </si>
   <si>
-    <t>Over login attempts limit</t>
-  </si>
-  <si>
-    <t>Visitor tries to login account, but over the attempt limit</t>
-  </si>
-  <si>
-    <t>Check username and password in DB. Lock the member until member reset the password</t>
-  </si>
-  <si>
     <t>Send reset password page to member through registered email address</t>
   </si>
   <si>
-    <t>Add profile request</t>
-  </si>
-  <si>
     <t>Edit profile request</t>
   </si>
   <si>
@@ -810,33 +795,15 @@
     <t>Member wants to update password</t>
   </si>
   <si>
-    <t>Member wants to add shipping address</t>
-  </si>
-  <si>
-    <t>Member wants to delete shipping address</t>
-  </si>
-  <si>
     <t>Member wants to edit shipping address</t>
   </si>
   <si>
-    <t>Add shipping address</t>
-  </si>
-  <si>
-    <t>The new shipping address is added on DB, updated shipping address is displayed</t>
-  </si>
-  <si>
     <t>Edit shipping address</t>
   </si>
   <si>
     <t>Update the DB with the edited shipping address, updated shipping address is displayed</t>
   </si>
   <si>
-    <t>Delete shipping address</t>
-  </si>
-  <si>
-    <t>Delete the shipping address from DB, updated shipping addresss is displayed</t>
-  </si>
-  <si>
     <t>Member wants to add a new credit card</t>
   </si>
   <si>
@@ -873,18 +840,6 @@
     <t>Employee wants to approve game review</t>
   </si>
   <si>
-    <t>System creates a cart</t>
-  </si>
-  <si>
-    <t>Successful log in</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>A cart is created as part of the member's session</t>
-  </si>
-  <si>
     <t>Delete a game from cart in session</t>
   </si>
   <si>
@@ -946,6 +901,27 @@
   </si>
   <si>
     <t xml:space="preserve">Select games from DB where game name or category are the filtering content, returned games are displayed in list </t>
+  </si>
+  <si>
+    <t>Confirm change password</t>
+  </si>
+  <si>
+    <t>View a game details</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Member or Employee wants to log out</t>
+  </si>
+  <si>
+    <t>Logout Request</t>
+  </si>
+  <si>
+    <t>Member/Employee</t>
+  </si>
+  <si>
+    <t>session is cleared, visitor page is displayed</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1039,14 +1015,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,14 +1394,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1728,14 +1710,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1784,14 +1766,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1909,14 +1891,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2057,14 +2039,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2113,14 +2095,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2192,14 +2174,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2271,13 +2253,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -2349,14 +2331,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2474,13 +2456,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2547,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2541,7 @@
     <col min="2" max="2" width="31.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="97.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="5"/>
@@ -2569,22 +2551,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2795,26 +2777,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2823,19 +2805,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>33</v>
@@ -2846,19 +2828,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>33</v>
@@ -2869,19 +2851,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>33</v>
@@ -2892,22 +2874,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,22 +2897,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,22 +2920,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,19 +2943,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>87</v>
@@ -2984,90 +2966,90 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="B20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="B21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3076,19 +3058,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>87</v>
@@ -3099,42 +3081,42 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>118</v>
+      <c r="F25" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>87</v>
@@ -3145,19 +3127,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>87</v>
@@ -3168,19 +3150,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>87</v>
@@ -3191,10 +3173,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>44</v>
@@ -3203,7 +3185,7 @@
         <v>87</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>87</v>
@@ -3214,19 +3196,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>87</v>
@@ -3237,42 +3219,42 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>306</v>
+      <c r="F31" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>87</v>
@@ -3283,19 +3265,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>87</v>
@@ -3306,10 +3288,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>55</v>
@@ -3318,7 +3300,7 @@
         <v>87</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>87</v>
@@ -3329,19 +3311,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>87</v>
@@ -3352,19 +3334,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>87</v>
@@ -3375,19 +3357,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>87</v>
@@ -3398,19 +3380,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>87</v>
@@ -3421,19 +3403,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>159</v>
+        <v>87</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>87</v>
@@ -3444,19 +3426,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>87</v>
@@ -3467,19 +3449,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>87</v>
@@ -3490,163 +3472,26 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Event table.xlsx
+++ b/Documentation/Event table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Grey-Cube-Development\Documentation\inception documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROG3050\Project\Git\Grey-Cube-Development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="326">
   <si>
     <t>Use Case#</t>
   </si>
@@ -891,9 +891,6 @@
     <t>Member wants to add a game review</t>
   </si>
   <si>
-    <t xml:space="preserve">Select games from DB where game name or category are the filtering content, returned games are displayed in list </t>
-  </si>
-  <si>
     <t>View a game details</t>
   </si>
   <si>
@@ -1000,6 +997,12 @@
   </si>
   <si>
     <t>Another Member</t>
+  </si>
+  <si>
+    <t>Member selects games by genre</t>
+  </si>
+  <si>
+    <t>Filters games by selected genre, returns and displays list</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,6 +1035,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1107,6 +1116,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2609,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,233 +2669,233 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2970,26 +2991,26 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3016,26 +3037,26 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3044,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>255</v>
@@ -3067,7 +3088,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>108</v>
@@ -3185,7 +3206,7 @@
         <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>139</v>
@@ -3194,7 +3215,7 @@
         <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>87</v>
@@ -3205,7 +3226,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>141</v>
@@ -3352,7 +3373,7 @@
         <v>279</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>159</v>
@@ -3481,10 +3502,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>280</v>
@@ -3493,7 +3514,7 @@
         <v>87</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>87</v>
@@ -3550,19 +3571,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>82</v>
@@ -3573,19 +3594,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="E42" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>33</v>
@@ -3596,19 +3617,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>33</v>
@@ -3619,19 +3640,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>33</v>
@@ -3642,19 +3663,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>87</v>
@@ -3665,19 +3686,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>87</v>
@@ -3688,19 +3709,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>87</v>

--- a/Documentation/Event table.xlsx
+++ b/Documentation/Event table.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="formated one" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'formated one'!$E$1:$E$47</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="339">
   <si>
     <t>Use Case#</t>
   </si>
@@ -759,9 +762,6 @@
     <t>The detailed report is displayed</t>
   </si>
   <si>
-    <t>Register an event</t>
-  </si>
-  <si>
     <t>Add member id in Registration events table on DB, return to events page</t>
   </si>
   <si>
@@ -783,9 +783,6 @@
     <t xml:space="preserve">Delete a game in wish list on DC, return wish list page </t>
   </si>
   <si>
-    <t>Visitor registers as member</t>
-  </si>
-  <si>
     <t>Visitor wants to be a register</t>
   </si>
   <si>
@@ -816,21 +813,12 @@
     <t>Display stored profile information in view for member</t>
   </si>
   <si>
-    <t>Remove game from wish list</t>
-  </si>
-  <si>
-    <t>Member wants to view their friends list</t>
-  </si>
-  <si>
     <t>Friend inquiry</t>
   </si>
   <si>
     <t>Display list of users on the member's friend list</t>
   </si>
   <si>
-    <t>View own friends list</t>
-  </si>
-  <si>
     <t>Select game from DB, the game detail is displayed, overall rating is calculated</t>
   </si>
   <si>
@@ -873,9 +861,6 @@
     <t>Edit the value of isPublished field to "true" if employee wants to publish, updated the view is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Update the order of status to "processed" </t>
-  </si>
-  <si>
     <t>Check username and password in DB. If the provided information is correct,  the index page is displayed</t>
   </si>
   <si>
@@ -891,12 +876,6 @@
     <t>Member wants to add a game review</t>
   </si>
   <si>
-    <t>View a game details</t>
-  </si>
-  <si>
-    <t>Log Out</t>
-  </si>
-  <si>
     <t>Member or Employee wants to log out</t>
   </si>
   <si>
@@ -915,9 +894,6 @@
     <t>Edit profile</t>
   </si>
   <si>
-    <t>View all pending reviews</t>
-  </si>
-  <si>
     <t>View own wishlist</t>
   </si>
   <si>
@@ -960,9 +936,6 @@
     <t>Select unapproved reviews from DB, return all reviews in list on reviews page</t>
   </si>
   <si>
-    <t>Reject a review</t>
-  </si>
-  <si>
     <t>Employee wants to view unshipped orders</t>
   </si>
   <si>
@@ -1003,6 +976,75 @@
   </si>
   <si>
     <t>Filters games by selected genre, returns and displays list</t>
+  </si>
+  <si>
+    <t>Member wants to view their friends wishlist</t>
+  </si>
+  <si>
+    <t>Updated the ship status to "processed"</t>
+  </si>
+  <si>
+    <t>Update the order of status to "processed" TO BE REMOVED</t>
+  </si>
+  <si>
+    <t>Publish review</t>
+  </si>
+  <si>
+    <t>Update ship status</t>
+  </si>
+  <si>
+    <t>Visitor registers</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>Add credit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete credit card </t>
+  </si>
+  <si>
+    <t>Add to wish list</t>
+  </si>
+  <si>
+    <t>Remove from wish list</t>
+  </si>
+  <si>
+    <t>View friends</t>
+  </si>
+  <si>
+    <t>Add friend</t>
+  </si>
+  <si>
+    <t>Delete friend</t>
+  </si>
+  <si>
+    <t>Rate game</t>
+  </si>
+  <si>
+    <t>Add review</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Delete from cart</t>
+  </si>
+  <si>
+    <t>Register for event</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>View pending reviews</t>
+  </si>
+  <si>
+    <t>Reject review</t>
+  </si>
+  <si>
+    <t>View game details</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1067,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1083,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1105,18 +1165,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,6 +1176,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,14 +1574,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1809,14 +1890,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1865,14 +1946,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1990,14 +2071,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2138,14 +2219,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2194,14 +2275,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2273,14 +2354,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2352,13 +2433,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -2430,14 +2511,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2555,13 +2636,13 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2630,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,1065 +2750,1066 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="G2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="G3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="G4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="G5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="G9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="G11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="G39" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D41" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="42" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C44" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="B45" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="C45" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="D46" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="E46" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="C47" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="E47" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="14" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
